--- a/2020/Requisition/19.01.2020 Requisition of Mughdo Corporation.xlsx
+++ b/2020/Requisition/19.01.2020 Requisition of Mughdo Corporation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2020\Requisition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DCF70D-6404-4307-884E-28293D90977E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18AC570-4D1F-4E9E-BECF-824BB55FB004}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1105,7 +1105,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I104" sqref="I104"/>
+      <selection pane="bottomRight" activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -2741,11 +2741,11 @@
         <v>1130.82</v>
       </c>
       <c r="C52" s="8">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="D52" s="10">
         <f>C52*B52</f>
-        <v>294013.2</v>
+        <v>339246</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>92</v>
@@ -3815,11 +3815,11 @@
         <v>7165.02</v>
       </c>
       <c r="C92" s="8">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D92" s="10">
         <f t="shared" si="2"/>
-        <v>107475.3</v>
+        <v>179125.5</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>130</v>
@@ -3928,11 +3928,11 @@
       <c r="B96" s="45"/>
       <c r="C96" s="16">
         <f>SUBTOTAL(9,C7:C95)</f>
-        <v>275</v>
+        <v>325</v>
       </c>
       <c r="D96" s="17">
         <f>SUBTOTAL(9,D7:D95)</f>
-        <v>401488.5</v>
+        <v>518371.5</v>
       </c>
       <c r="E96" s="31"/>
       <c r="F96" s="33"/>
@@ -4089,7 +4089,7 @@
         <v>22</v>
       </c>
       <c r="C101" s="21">
-        <v>600000</v>
+        <v>680000</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>129</v>
@@ -4144,7 +4144,7 @@
       </c>
       <c r="C105" s="22">
         <f>SUBTOTAL(9,C100:C104)</f>
-        <v>600000</v>
+        <v>680000</v>
       </c>
       <c r="D105" s="15"/>
       <c r="E105" s="23"/>
